--- a/src/my_rag/evaluations/results/rag_evaluations_with_reank_embedder_sentence-transformers_all-MiniLM-L6-v2_llm_anthropic.claude-3-5-sonnet-20240620-v1_0_dataset_PubMed filtered Dataset.xlsx
+++ b/src/my_rag/evaluations/results/rag_evaluations_with_reank_embedder_sentence-transformers_all-MiniLM-L6-v2_llm_anthropic.claude-3-5-sonnet-20240620-v1_0_dataset_PubMed filtered Dataset.xlsx
@@ -478,15 +478,13 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Based on the information provided in the context, long non-coding RNAs (lncRNAs) do undergo splicing, but often less efficiently or later than protein-coding mRNAs:
-Key points:
-1. LncRNAs show lower splicing completion compared to mRNAs in the chromatin-associated fraction, suggesting they are often spliced later or sometimes not spliced at all.
-2. The coSI (co-transcriptional splicing index) values of lncRNA exons are dramatically lower than those of coding exons in the chromatin fraction, indicating less efficient co-transcriptional splicing.
-3. Even in the nuclear polyA+ fraction, lncRNAs show lower splicing completion than mRNAs.
-4. Some well-known lncRNAs like H19, XIST, and U50HG_SNHG5 have much lower coSI values compared to coding exons.
-5. Some lncRNAs like AIRN and KCNQ1OT1 are reported to remain predominantly unspliced.
-6. The authors state that for alternative exons and lncRNAs, "splicing tends to occur later, and the latter might remain unspliced in some cases."
-In summary, while lncRNAs can be spliced, the process appears to be less efficient, often occurs later than for mRNAs, and in some cases lncRNAs may remain unspliced. The splicing dynamics of lncRNAs seem to differ from those of protein-coding genes.</t>
+          <t>Based on the information provided in the context, long non-coding RNAs (lncRNAs) do undergo splicing, but often less efficiently or later than protein-coding mRNAs. Specifically:
+1. The study found that lncRNAs show lower splicing completion than mRNAs in the chromatin-associated RNA fraction, suggesting they are often spliced later or sometimes not spliced at all.
+2. LncRNA exons had dramatically lower coSI (co-transcriptional splicing index) values compared to coding exons in the chromatin fraction, indicating less efficient co-transcriptional splicing.
+3. The difference in splicing efficiency between lncRNAs and mRNAs persisted even in the nuclear polyA+ fraction, further supporting that lncRNAs are spliced later or less efficiently.
+4. Some well-known lncRNAs like H19, XIST, and U50HG_SNHG5 showed much lower splicing completion compared to coding exons.
+5. The authors note that some lncRNAs like AIRN and KCNQ1OT1 have been reported to remain predominantly unspliced.
+So in summary, while lncRNAs can be spliced, the process appears to be less efficient and often occurs later compared to mRNAs, with some lncRNAs potentially remaining unspliced. The splicing dynamics differ between lncRNAs and protein-coding genes.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -518,7 +516,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Based on the given context, there is no information about whether Denosumab (Prolia) has been approved by the FDA. The context discusses some other treatments for castration-resistant prostate cancer, but does not mention Denosumab or its FDA approval status.</t>
+          <t>Based on the given context, there is no information provided about Denosumab (Prolia) or its FDA approval status. The context discusses other treatments for castration-resistant prostate cancer like cabazitaxel, abiraterone, and enzalutamide, but does not mention Denosumab.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -550,15 +548,15 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Based on the information provided in the context, Hirschsprung disease (HSCR) appears to be a multifactorial disorder with complex genetic etiology, rather than a simple Mendelian disorder. Key evidence supporting this includes:
+          <t>Based on the information provided in the context, Hirschsprung disease (HSCR) appears to be a multifactorial disorder with complex genetic etiology, rather than a simple Mendelian disorder. Key points that support this:
 1. The context states that "HSCR has a complex genetic etiology with several genes being described as associated with either isolated or syndromic forms."
-2. It mentions that both rare variants (RVs) and common variants (CVs) in the RET gene contribute to HSCR risk, indicating multiple genetic factors are involved.
-3. The study found that in many cases, patients had both RET coding sequence mutations and enhancer variants, often in trans configuration, suggesting a synergistic effect of different types of genetic variants.
-4. Some patients had mutations in other HSCR-associated genes besides RET, or chromosomal abnormalities, indicating multiple genes and genetic factors can contribute.
-5. There are gender differences in the effects of certain genetic variants, suggesting complex gene-environment interactions.
-6. The disease shows incomplete penetrance and variable expressivity, which is characteristic of multifactorial disorders.
-7. The context mentions HSCR has "differential contributions of its rare and common, coding and noncoding mutations to the multifactorial nature of this pathology."
-In summary, while RET is a major gene involved, the evidence points to HSCR being a multifactorial disorder with contributions from multiple genetic and likely environmental factors, rather than following simple Mendelian inheritance patterns. The complex interplay of different types of variants supports its multifactorial etiology.</t>
+2. It mentions that both rare variants (RVs) and common variants (CVs) in the RET gene contribute to HSCR risk in a multifactorial manner. 
+3. The study found that in many cases, patients had both RET coding mutations and common variants in regulatory regions like enhancers, acting synergistically.
+4. There are gender differences in the effects of genetic variants, suggesting complex inheritance.
+5. Some patients had mutations in multiple different genes associated with HSCR.
+6. A significant portion of patients (13%) had neither RET rare variants nor common variants, indicating other genetic or environmental factors likely contribute.
+7. The disease shows incomplete penetrance and variable expressivity, which is characteristic of multifactorial disorders.
+So in summary, while RET is a major gene involved, HSCR appears to result from a combination of rare and common variants in multiple genes, as well as potential environmental factors, fitting a multifactorial model rather than simple Mendelian inheritance. The genetic architecture is complex and involves multiple interacting factors.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -590,7 +588,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Based on the given context, I do not have enough information to determine if RANKL is secreted from cells. The provided context does not contain any specific information about RANKL or its secretion. To accurately answer this question, I would need additional context or information about RANKL and its biological properties.</t>
+          <t>Based on the provided context, I do not have enough information to determine if RANKL is secreted from cells. The given context does not contain any specific information about RANKL or its secretion. The context appears to be discussing various topics related to stem cells, cancer, and gene expression, but does not mention RANKL secretion.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -628,8 +626,9 @@
 3. HER2 is overexpressed in metastatic prostate cancer (42% of tested patients were positive), but Trastuzumab was not effective as a single agent for treating these patients. 
 4. However, the context suggests some potential for Trastuzumab when combined with other approaches:
 - Coupling Trastuzumab to nanoparticles containing cytotoxic agents could allow targeting to HER2-overexpressing prostate cancer cells.
-- Radiolabeling Trastuzumab with alpha particle emitters like Lead-212 showed promise in retarding tumor growth and reducing metastasis in an animal model.
-So in summary, while Trastuzumab alone does not appear very effective, there may be potential for its use in prostate cancer treatment as part of combination therapies or when modified/radiolabeled to enhance its effects. More research would be needed to determine its clinical utility in prostate cancer.</t>
+- Radiolabeling Trastuzumab with alpha particle emitters like Lead-212 showed promise in retarding tumor growth and reducing metastasis in animal models.
+5. The context also mentions that other anti-HER2 therapies like pertuzumab and lapatinib were ineffective as single agents against prostate cancer.
+In summary, while Trastuzumab alone does not appear effective, there may be potential for its use in prostate cancer treatment as part of combination therapies or when modified (e.g. radiolabeled). More research would be needed to determine its clinical utility in these applications.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -661,15 +660,15 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Based on the context provided, the following ligands are known to interact with and bind to the epidermal growth factor receptor (EGFR):
+          <t>Based on the context provided, the following ligands are known to interact with and bind to EGFR (epidermal growth factor receptor):
 1. Epidermal growth factor (EGF)
-2. Betacellulin (BTC)
-3. Heparin-binding EGF-like growth factor (HB-EGF) 
+2. Betacellulin (BTC)  
+3. Heparin-binding EGF-like growth factor (HB-EGF)
 4. Amphiregulin (AR)
 5. Epiregulin (EPR)
 6. Transforming growth factor-α (TGF-α)
 7. Epigen (EPG)
-The passage states that "Seven different ligands are known to bind to EGFR" and then lists these 7 specific ligands. It also mentions that they all share a common EGF-like motif structure and are synthesized as transmembrane proteins that are cleaved to produce soluble growth factors.</t>
+The passage states that "Seven different ligands are known to bind to EGFR" and then lists these 7 specific ligands. It also mentions that they all share a common EGF-like motif structure.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -701,9 +700,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Based on the context provided, orteronel was developed for the treatment of castration-resistant prostate cancer (CRPC). Specifically, the passage states:
-"We conducted a phase 1 study in men with progressive and chemotherapy-naïve CRPC. Patients received orteronel orally at doses of 200–400 mg twice daily (BID) with or without oral prednisolone (5 mg BID)."
-The study was evaluating orteronel in Japanese patients with CRPC, indicating that orteronel was developed as a potential treatment for this type of prostate cancer.</t>
+          <t>Based on the context provided, orteronel was developed for the treatment of castration-resistant prostate cancer (CRPC). Specifically:
+- The study described was a phase 1 trial evaluating orteronel in "Japanese patients with castration-resistant prostate cancer (CRPC)".
+- It states that orteronel is "a non-steroidal, selective, reversible inhibitor of 17,20-lyase" which is involved in androgen synthesis. 
+- The study enrolled men with "progressive and chemotherapy-naïve CRPC".
+- The introduction discusses prostate cancer and how patients eventually develop resistance to androgen deprivation therapy, leading to CRPC.
+So orteronel was developed specifically as a treatment for castration-resistant prostate cancer by inhibiting androgen synthesis through 17,20-lyase inhibition.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -735,12 +737,13 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Based on the information provided in the context, Pannexin1 (Panx1) is located in the following places:
-1. At the plasma membrane of cells. The context states that Panx1 "traffic to the plasma membrane" and is "fully glycosylated, traffic to the plasma membrane".
-2. In neurons and astrocytes in the central nervous system. The passage mentions that Panx1 is "expressed in significant levels in neurons and astrocytes".
-3. In T-tubules of skeletal muscle fibers. Specifically, it states that "Innervated adult fast and slow skeletal myofibers show Panx1 reactivity in close proximity to dihydropyridine receptors in the sarcolemma of T-tubules."
-4. Ubiquitously expressed in many cell types. The context notes that "Pannexin1 (Panx1) is fairly ubiquitous".
-So in summary, Pannexin1 is primarily localized to the plasma membrane in various cell types, with notable expression in neurons, astrocytes, and skeletal muscle fibers.</t>
+          <t>Based on the information provided in the context, Pannexin1 (Panx1) is primarily located at the plasma membrane. Specifically:
+1. The context states that "Panx1 is fairly ubiquitous" and "traffic to the plasma membrane".
+2. It mentions that Panx1 is "fully glycosylated, traffic to the plasma membrane and have functions correlated with extracellular ATP release."
+3. In discussing differences with Panx2, it notes that "Panx1 is fully N-glycosylated and transported to the cell membrane".
+4. When describing localization in brain tissue, it states "Panx1 and Panx2 were differentially localized both in neurons and astrocytes in the adult mouse brain", with Panx1 being at the cell membrane.
+5. It describes Panx1 as forming "ATP release channels" at the cell surface.
+So in summary, the evidence consistently indicates that Pannexin1 is primarily localized to the plasma membrane of cells.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -772,13 +775,13 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Based on the context provided, the main acetylcholinesterase inhibitor used for symptomatic treatment of myasthenia gravis is:
+          <t>Based on the context provided, the main acetylcholinesterase inhibitor mentioned for treatment of myasthenia gravis is:
 Pyridostigmine (Mestinon)
 The passage states:
-"In MG, the first-line option is symptomatic treatment with acetylcholinesterase inhibitors."
-And it specifically mentions:
-"Mestinon (pyridostigmine bromide) in myasthenia gravis."
-So pyridostigmine (brand name Mestinon) is the primary acetylcholinesterase inhibitor used as symptomatic treatment for myasthenia gravis, according to the information provided in the context.</t>
+"In MG, the first-line option is symptomatic treatment with acetylcholinesterase inhibitors"
+And specifically mentions:
+"Mestinon (pyridostigmine bromide) in myasthenia gravis"
+So pyridostigmine (brand name Mestinon) is the primary acetylcholinesterase inhibitor discussed for treating myasthenia gravis in this context. The passage does not mention any other specific acetylcholinesterase inhibitors for MG treatment.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -810,7 +813,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>I apologize, but the given context does not contain any information about Yamanaka factors. The provided text discusses topics related to cancer, HER2 receptors, imaging agents, and some other cancer-related proteins and genes, but it does not mention Yamanaka factors. To accurately answer your question, I would need additional context that specifically addresses Yamanaka factors.</t>
+          <t>I apologize, but the given context does not contain any information about Yamanaka factors. The provided text discusses topics related to cancer, HER2 receptors, imaging agents, and some other cancer-related proteins and miRNAs, but does not mention Yamanaka factors. To accurately answer your question, I would need additional context that specifically addresses Yamanaka factors.</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -842,13 +845,13 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Based on the context provided, the main isoforms of mammalian Notch receptors mentioned are:
+          <t>Based on the context provided, the mammalian Notch receptor has multiple isoforms, including:
 1. NOTCH1
 2. NOTCH3 
 3. NOTCH4
-Specifically, the passage states:
+Specifically, the passage mentions:
 "NOTCH1 and NOTCH4 are also expressed in blood vessels and A7R5 smooth muscle cells [53,54,55,56] (data not shown). The ectodomains of these isoforms of NOTCH, like NOTCH3, are composed of a large number of EGF-like domain repeats."
-This indicates that NOTCH1, NOTCH3, and NOTCH4 are different isoforms of the mammalian Notch receptor that are expressed in blood vessels and smooth muscle cells. The text focuses primarily on NOTCH3 but mentions these other isoforms as well.</t>
+This indicates that NOTCH1, NOTCH3, and NOTCH4 are different isoforms of the mammalian Notch receptor. The text focuses primarily on NOTCH3 but acknowledges the existence of these other isoforms as well.</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -880,21 +883,23 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Based on the information provided in the context, the following mitochondrial diseases have been attributed to POLG mutations:
-1. Progressive external ophthalmoplegia (PEO) - Both autosomal dominant and autosomal recessive forms of PEO can be caused by POLG mutations. PEO is associated with multiple deletions of mitochondrial DNA in skeletal muscle.
+          <t>Based on the context provided, the following mitochondrial diseases have been attributed to POLG mutations:
+1. Progressive external ophthalmoplegia (PEO) - Both autosomal dominant and autosomal recessive forms of PEO can be caused by POLG mutations. PEO is characterized by weakness of the external eye muscles.
 2. A condition mimicking mitochondrial neurogastrointestinal encephalomyopathy (MNGIE) - The report describes patients with features resembling MNGIE who were found to have POLG mutations rather than the typical thymidine phosphorylase mutations seen in MNGIE. 
-3. The context mentions that recessive PEO patients with POLG mutations can have a heterogeneous clinical phenotype that may include:
-- Axonal sensory neuropathy 
+3. A syndrome involving PEO, axonal sensory ataxic neuropathy, and other variable features like:
+- Gastrointestinal dysmotility and pseudo-obstruction
+- Muscle weakness
+- Cachexia
 - Sensory ataxia
-- Cardiomyopathy
-- Retinopathy 
+- Cardiomyopathy 
+- Retinopathy
 - Sensorineural hearing loss
 - Thalamic lesions
 - Muscle dystrophy
 - Facial diplegia
-- Dysarthria 
+- Dysarthria
 - Dysphagia
-The report emphasizes that POLG mutations can cause a spectrum of mitochondrial disorders, with PEO being a common feature but associated with variable other symptoms. The finding of POLG mutations in patients resembling MNGIE expands the known clinical spectrum associated with POLG defects.</t>
+The report notes that recessive POLG mutations can cause a heterogeneous clinical phenotype with these various manifestations, in contrast to the more homogeneous presentation of MNGIE caused by thymidine phosphorylase mutations.</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -926,18 +931,18 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Based on the systematic review and experimental validation described in this context, the following miRNAs appear to be promising potential biomarkers for epithelial ovarian cancer (EOC):
+          <t>Based on the systematic review and validation studies described in the context, the following miRNAs appear to be promising potential biomarkers for epithelial ovarian cancer (EOC):
 1. miR-200a (up-regulated)
-2. miR-200b (up-regulated)  
+2. miR-200b (up-regulated) 
 3. miR-200c (up-regulated)
 4. miR-141 (up-regulated)
 5. miR-100 (down-regulated)
 The review found that these 5 miRNAs were consistently differentially expressed across multiple independent miRNA profiling studies of EOC. Specifically:
 - miR-200a, miR-200b, miR-200c, and miR-141 (all part of the miR-200 family) were consistently up-regulated in at least 4 studies.
 - miR-100 was consistently down-regulated in 4 studies. 
-The authors also experimentally validated the dysregulation of these 5 miRNAs in EOC tissues using qRT-PCR, confirming the findings from the literature review.
-Additionally, the study on serum miR-21 levels found that miR-21 was significantly upregulated in EOC patients compared to healthy controls, and correlated with advanced stage and poor prognosis. This suggests serum miR-21 may also serve as a potential diagnostic and prognostic biomarker for EOC.
-In conclusion, these miRNAs, particularly the 5 identified in the systematic review and miR-21, show promise as candidate biomarkers for EOC, though further validation studies are needed to confirm their clinical utility.</t>
+The authors validated these findings by confirming the dysregulation of these miRNAs in EOC tissues using qRT-PCR.
+Additionally, the review mentions that serum miR-21 levels were found to be significantly higher in EOC patients compared to healthy controls in another study, suggesting it may also serve as a potential diagnostic and prognostic biomarker for EOC.
+In conclusion, these miRNAs, particularly the 5 identified in the systematic review, show promise as candidate biomarkers for EOC, though further validation studies are needed to confirm their clinical utility.</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
